--- a/QuickZip/ExportedFiles/UMRNfile.xlsx
+++ b/QuickZip/ExportedFiles/UMRNfile.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>UMRN</t>
   </si>
@@ -60,9 +60,6 @@
     <t>3. Amount must be numeric.</t>
   </si>
   <si>
-    <t>45345235235</t>
-  </si>
-  <si>
     <t>500</t>
   </si>
   <si>
@@ -121,6 +118,24 @@
   </si>
   <si>
     <t>2020-12-17</t>
+  </si>
+  <si>
+    <t>45345235236</t>
+  </si>
+  <si>
+    <t>45345235237</t>
+  </si>
+  <si>
+    <t>45345235238</t>
+  </si>
+  <si>
+    <t>45345235239</t>
+  </si>
+  <si>
+    <t>45345235586</t>
+  </si>
+  <si>
+    <t>45345235658</t>
   </si>
 </sst>
 </file>
@@ -442,7 +457,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,122 +488,122 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
